--- a/results/min_var_portfolio/min_var_2015.xlsx
+++ b/results/min_var_portfolio/min_var_2015.xlsx
@@ -531,7 +531,7 @@
         <v>0.174324657450316</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0669299881076803</v>
+        <v>0.09250225208559804</v>
       </c>
     </row>
     <row r="3">
@@ -577,7 +577,7 @@
         <v>0.2003104393433172</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001000000000000003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -623,7 +623,7 @@
         <v>0.3473984814169553</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001</v>
+        <v>0.00100000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +669,7 @@
         <v>0.02773675497159962</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001000000000000016</v>
+        <v>0.001000000000000019</v>
       </c>
     </row>
     <row r="6">
@@ -761,7 +761,7 @@
         <v>-0.004821854840355274</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2198777420958274</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -853,7 +853,7 @@
         <v>0.01723046563713082</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001000000000000002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="10">
@@ -899,7 +899,7 @@
         <v>-0.02061265900172884</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1311747762469056</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -945,7 +945,7 @@
         <v>0.03267108105381478</v>
       </c>
       <c r="N11" t="n">
-        <v>0.026995679796661</v>
+        <v>0.04855061296321992</v>
       </c>
     </row>
     <row r="12">
@@ -991,7 +991,7 @@
         <v>-0.01167280518545322</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3605018990974776</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13">
@@ -1037,7 +1037,7 @@
         <v>0.007171771030874275</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001</v>
+        <v>0.07286695165057186</v>
       </c>
     </row>
     <row r="14">
@@ -1083,7 +1083,7 @@
         <v>0.01806824561062461</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06302961697067083</v>
+        <v>0.1173398567334871</v>
       </c>
     </row>
     <row r="15">
@@ -1175,7 +1175,7 @@
         <v>0.02643841322832564</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001000000000000005</v>
+        <v>0.001000000000000002</v>
       </c>
     </row>
     <row r="17">
@@ -1313,7 +1313,7 @@
         <v>0.05796370902162234</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1105242688689109</v>
+        <v>0.1318109578632803</v>
       </c>
     </row>
     <row r="20">
@@ -1359,7 +1359,7 @@
         <v>0.1251699693818387</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001000000000000001</v>
+        <v>0.007632901877148632</v>
       </c>
     </row>
     <row r="21">
@@ -1405,7 +1405,7 @@
         <v>0.1091401431168984</v>
       </c>
       <c r="N21" t="n">
-        <v>0.008966028815866356</v>
+        <v>0.06929646682669441</v>
       </c>
     </row>
     <row r="22">
@@ -1415,40 +1415,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02108120734766425</v>
+        <v>0.02147520643930769</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05427361834180437</v>
+        <v>0.04935615001843645</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002047547709530497</v>
+        <v>0.009755284474596169</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03382528939221217</v>
+        <v>0.03755228859330272</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02189513814884567</v>
+        <v>0.03426440281842462</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0004889004886059517</v>
+        <v>0.02132798309349331</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02281923512040367</v>
+        <v>0.01300930426063261</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01789406329731621</v>
+        <v>-0.01444327698244592</v>
       </c>
       <c r="J22" t="n">
-        <v>6.535479408906544e-05</v>
+        <v>0.00256903922549441</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.006621330091626854</v>
+        <v>-0.01404324652842785</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01785174678235647</v>
+        <v>0.028263795820348</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01413950879069622</v>
+        <v>0.03185293027162392</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1459,43 +1459,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.021304985739102</v>
+        <v>1.021707458257471</v>
       </c>
       <c r="C23" t="n">
-        <v>1.055773441615807</v>
+        <v>1.050594453351678</v>
       </c>
       <c r="D23" t="n">
-        <v>1.002049645366782</v>
+        <v>1.009803022368154</v>
       </c>
       <c r="E23" t="n">
-        <v>1.034403869611474</v>
+        <v>1.038266285146013</v>
       </c>
       <c r="F23" t="n">
-        <v>1.022136595714972</v>
+        <v>1.034858189980533</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9995112190037638</v>
+        <v>1.021557050139088</v>
       </c>
       <c r="H23" t="n">
-        <v>1.023081585611493</v>
+        <v>1.013094293409309</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9822650847709608</v>
+        <v>0.9856605267860938</v>
       </c>
       <c r="J23" t="n">
-        <v>1.00006535692976</v>
+        <v>1.002572342034509</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9934005426123743</v>
+        <v>0.9860548998894985</v>
       </c>
       <c r="L23" t="n">
-        <v>1.018012041641016</v>
+        <v>1.028667006689906</v>
       </c>
       <c r="M23" t="n">
-        <v>1.014239944457153</v>
+        <v>1.032365664401943</v>
       </c>
       <c r="N23" t="n">
-        <v>1.242348809361718</v>
+        <v>1.127199742769974</v>
       </c>
     </row>
   </sheetData>
